--- a/demoproject/Config.xlsx
+++ b/demoproject/Config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Config Field</t>
   </si>
@@ -70,13 +70,22 @@
   </si>
   <si>
     <t>Password:</t>
+  </si>
+  <si>
+    <t>anideeptestamazon@gmail.com</t>
+  </si>
+  <si>
+    <t>Amazon@123</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,6 +97,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -110,14 +127,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -399,13 +419,13 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -468,19 +488,33 @@
       <c r="A8" t="s">
         <v>14</v>
       </c>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
+      <c r="B10" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B9" r:id="rId1"/>
+    <hyperlink ref="B10" r:id="rId2"/>
+    <hyperlink ref="B8" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
 </worksheet>
 </file>
--- a/demoproject/Config.xlsx
+++ b/demoproject/Config.xlsx
@@ -27,9 +27,6 @@
     <t>Value</t>
   </si>
   <si>
-    <t>Browser:</t>
-  </si>
-  <si>
     <t>Chrome</t>
   </si>
   <si>
@@ -79,6 +76,9 @@
   </si>
   <si>
     <t>https://www.amazon.in/</t>
+  </si>
+  <si>
+    <t>Broswer:</t>
   </si>
 </sst>
 </file>
@@ -419,7 +419,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -438,74 +438,74 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
         <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
